--- a/BAfc_claude_code/figures/figure_5/figure_5_data.xlsx
+++ b/BAfc_claude_code/figures/figure_5/figure_5_data.xlsx
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="846" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="756" uniqueCount="69">
   <si>
     <t>PANEL E: PIE CHARTS - PROPORTIONS OF ENHANCED NEURONS</t>
   </si>
   <si>
-    <t>Testing method: single_window</t>
-  </si>
-  <si>
     <t>Test window: 10-50 ms</t>
   </si>
   <si>
@@ -60,13 +57,25 @@
     <t>Non-Enhanced (%)</t>
   </si>
   <si>
-    <t>PANEL F: SPAGHETTI PLOTS - FR FOR ENHANCED NEURONS</t>
+    <t>PANEL F: SPAGHETTI PLOTS - FR BY CLASSIFICATION</t>
   </si>
   <si>
     <t>FR calculated as (nSpikes/trial) / window_duration (no baseline subtraction)</t>
   </si>
   <si>
-    <t>N Enhanced</t>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>Increased</t>
+  </si>
+  <si>
+    <t>Decreased</t>
+  </si>
+  <si>
+    <t>Unchanged</t>
+  </si>
+  <si>
+    <t>N Neurons</t>
   </si>
   <si>
     <t>No Light Mean (Hz)</t>
@@ -108,6 +117,9 @@
     <t>n.s.</t>
   </si>
   <si>
+    <t>*</t>
+  </si>
+  <si>
     <t>RAW DATA: INDIVIDUAL NEURON CLASSIFICATIONS</t>
   </si>
   <si>
@@ -162,25 +174,7 @@
     <t>IN</t>
   </si>
   <si>
-    <t>Classification</t>
-  </si>
-  <si>
-    <t>Increased</t>
-  </si>
-  <si>
-    <t>Decreased</t>
-  </si>
-  <si>
-    <t>Unchanged</t>
-  </si>
-  <si>
     <t>p-value</t>
-  </si>
-  <si>
-    <t>Test Window (ms)</t>
-  </si>
-  <si>
-    <t>10-50</t>
   </si>
   <si>
     <t>FR No Light (Hz)</t>
@@ -312,9 +306,7 @@
       <c r="G2" s="0"/>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="0"/>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
       <c r="D3" s="0"/>
@@ -333,33 +325,33 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="0">
         <v>28</v>
@@ -379,10 +371,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="0">
         <v>35</v>
@@ -402,10 +394,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="0">
         <v>32</v>
@@ -425,10 +417,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="0">
         <v>32</v>
@@ -452,7 +444,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -460,24 +452,26 @@
   <cols>
     <col min="1" max="1" width="68.140625" customWidth="true"/>
     <col min="2" max="2" width="8.85546875" customWidth="true"/>
-    <col min="3" max="3" width="11.5703125" customWidth="true"/>
-    <col min="4" max="4" width="17.85546875" customWidth="true"/>
-    <col min="5" max="5" width="16.5703125" customWidth="true"/>
-    <col min="6" max="6" width="19.5703125" customWidth="true"/>
-    <col min="7" max="7" width="15.140625" customWidth="true"/>
-    <col min="8" max="8" width="9.140625"/>
-    <col min="9" max="9" width="19.5703125" customWidth="true"/>
-    <col min="10" max="10" width="18.28515625" customWidth="true"/>
-    <col min="11" max="11" width="21.28515625" customWidth="true"/>
-    <col min="12" max="12" width="16.85546875" customWidth="true"/>
-    <col min="13" max="13" width="9.140625"/>
-    <col min="14" max="14" width="15.7109375" customWidth="true"/>
-    <col min="15" max="15" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.85546875" customWidth="true"/>
+    <col min="4" max="4" width="10.5703125" customWidth="true"/>
+    <col min="5" max="5" width="9.140625"/>
+    <col min="6" max="6" width="17.85546875" customWidth="true"/>
+    <col min="7" max="7" width="16.5703125" customWidth="true"/>
+    <col min="8" max="8" width="19.5703125" customWidth="true"/>
+    <col min="9" max="9" width="15.140625" customWidth="true"/>
+    <col min="10" max="10" width="9.140625"/>
+    <col min="11" max="11" width="19.5703125" customWidth="true"/>
+    <col min="12" max="12" width="18.28515625" customWidth="true"/>
+    <col min="13" max="13" width="21.28515625" customWidth="true"/>
+    <col min="14" max="14" width="16.85546875" customWidth="true"/>
+    <col min="15" max="15" width="9.140625"/>
+    <col min="16" max="16" width="15.7109375" customWidth="true"/>
+    <col min="17" max="17" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -493,10 +487,12 @@
       <c r="M1"/>
       <c r="N1"/>
       <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -512,9 +508,13 @@
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
     </row>
     <row r="3">
-      <c r="A3"/>
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
@@ -529,220 +529,694 @@
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
       <c r="H4"/>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" t="s">
-        <v>24</v>
-      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
       <c r="M4"/>
-      <c r="N4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" t="s">
-        <v>26</v>
-      </c>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>11.328125</v>
-      </c>
-      <c r="E5">
-        <v>6.5455821117981294</v>
-      </c>
-      <c r="F5">
-        <v>7.1875</v>
-      </c>
-      <c r="G5">
-        <v>13.091164223596259</v>
-      </c>
-      <c r="H5"/>
-      <c r="I5">
-        <v>19.609375</v>
-      </c>
-      <c r="J5">
-        <v>6.4099011445022818</v>
-      </c>
-      <c r="K5">
-        <v>15.15625</v>
-      </c>
-      <c r="L5">
-        <v>12.819802289004564</v>
-      </c>
-      <c r="M5"/>
-      <c r="N5">
-        <v>0.0024586407022212072</v>
-      </c>
-      <c r="O5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
         <v>27</v>
+      </c>
+      <c r="O5"/>
+      <c r="P5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>8.8849431818181817</v>
-      </c>
-      <c r="E6">
-        <v>7.2594295655281806</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E6"/>
       <c r="F6">
-        <v>2.1448863636363633</v>
+        <v>11.328125</v>
       </c>
       <c r="G6">
-        <v>14.518859131056361</v>
-      </c>
-      <c r="H6"/>
+        <v>6.5455821117981294</v>
+      </c>
+      <c r="H6">
+        <v>7.1875</v>
+      </c>
       <c r="I6">
-        <v>13.849431818181818</v>
-      </c>
-      <c r="J6">
-        <v>7.7912287902144763</v>
-      </c>
+        <v>13.091164223596259</v>
+      </c>
+      <c r="J6"/>
       <c r="K6">
-        <v>6.4488636363636367</v>
+        <v>19.609375</v>
       </c>
       <c r="L6">
-        <v>15.582457580428953</v>
-      </c>
-      <c r="M6"/>
+        <v>6.4099011445022818</v>
+      </c>
+      <c r="M6">
+        <v>15.15625</v>
+      </c>
       <c r="N6">
-        <v>0.0035563226173991711</v>
-      </c>
-      <c r="O6" t="s">
-        <v>27</v>
+        <v>12.819802289004564</v>
+      </c>
+      <c r="O6"/>
+      <c r="P6">
+        <v>0.0024586407022212072</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7">
+        <v>24.6875</v>
+      </c>
+      <c r="G7">
+        <v>7.4068553166521474</v>
+      </c>
+      <c r="H7">
+        <v>15</v>
+      </c>
+      <c r="I7">
+        <v>24.565759961784206</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7">
+        <v>16.306818181818183</v>
+      </c>
+      <c r="L7">
+        <v>6.5794988418823044</v>
+      </c>
+      <c r="M7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>11.510416666666666</v>
-      </c>
-      <c r="E7">
-        <v>4.3559231903556084</v>
-      </c>
-      <c r="F7">
-        <v>8.75</v>
-      </c>
-      <c r="G7">
-        <v>10.669789175127439</v>
-      </c>
-      <c r="H7"/>
-      <c r="I7">
-        <v>16.979166666666668</v>
-      </c>
-      <c r="J7">
-        <v>4.8180883859103751</v>
-      </c>
-      <c r="K7">
-        <v>13.90625</v>
-      </c>
-      <c r="L7">
-        <v>11.801858081110222</v>
-      </c>
-      <c r="M7"/>
       <c r="N7">
-        <v>0.000648991516342895</v>
-      </c>
-      <c r="O7" t="s">
-        <v>28</v>
+        <v>21.821728967101492</v>
+      </c>
+      <c r="O7"/>
+      <c r="P7">
+        <v>0.00013897256478589956</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8">
+        <v>12.954108391608392</v>
+      </c>
+      <c r="G8">
+        <v>2.3513997996656424</v>
+      </c>
+      <c r="H8">
+        <v>9.6875</v>
+      </c>
+      <c r="I8">
+        <v>8.4780925468102257</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8">
+        <v>13.08173076923077</v>
+      </c>
+      <c r="L8">
+        <v>2.2702677851026625</v>
+      </c>
+      <c r="M8">
+        <v>11.25</v>
+      </c>
+      <c r="N8">
+        <v>8.1855669082217108</v>
+      </c>
+      <c r="O8"/>
+      <c r="P8">
+        <v>0.86877095216530797</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10">
+        <v>8.8849431818181817</v>
+      </c>
+      <c r="G10">
+        <v>7.2594295655281806</v>
+      </c>
+      <c r="H10">
+        <v>2.1448863636363633</v>
+      </c>
+      <c r="I10">
+        <v>14.518859131056361</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10">
+        <v>13.849431818181818</v>
+      </c>
+      <c r="L10">
+        <v>7.7912287902144763</v>
+      </c>
+      <c r="M10">
+        <v>6.4488636363636367</v>
+      </c>
+      <c r="N10">
+        <v>15.582457580428953</v>
+      </c>
+      <c r="O10"/>
+      <c r="P10">
+        <v>0.0035563226173991711</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11">
+        <v>25.597537878787879</v>
+      </c>
+      <c r="G11">
+        <v>6.00477517035202</v>
+      </c>
+      <c r="H11">
+        <v>18.75</v>
+      </c>
+      <c r="I11">
+        <v>20.801151366155516</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11">
+        <v>16.628314393939394</v>
+      </c>
+      <c r="L11">
+        <v>4.6730321041591347</v>
+      </c>
+      <c r="M11">
+        <v>10.78125</v>
+      </c>
+      <c r="N11">
+        <v>16.187858059608239</v>
+      </c>
+      <c r="O11"/>
+      <c r="P11">
+        <v>5.6592006161416236e-05</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>19</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12">
+        <v>17.569078947368421</v>
+      </c>
+      <c r="G12">
+        <v>3.493159481842965</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+      <c r="I12">
+        <v>15.226329175024388</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12">
+        <v>17.476973684210527</v>
+      </c>
+      <c r="L12">
+        <v>3.4772134793684835</v>
+      </c>
+      <c r="M12">
+        <v>11.875</v>
+      </c>
+      <c r="N12">
+        <v>15.156822161684675</v>
+      </c>
+      <c r="O12"/>
+      <c r="P12">
+        <v>0.87894846421649697</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14">
+        <v>11.510416666666666</v>
+      </c>
+      <c r="G14">
+        <v>4.3559231903556084</v>
+      </c>
+      <c r="H14">
+        <v>8.75</v>
+      </c>
+      <c r="I14">
+        <v>10.669789175127439</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14">
+        <v>16.979166666666668</v>
+      </c>
+      <c r="L14">
+        <v>4.8180883859103751</v>
+      </c>
+      <c r="M14">
+        <v>13.90625</v>
+      </c>
+      <c r="N14">
+        <v>11.801858081110222</v>
+      </c>
+      <c r="O14"/>
+      <c r="P14">
+        <v>0.000648991516342895</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
+      <c r="E15"/>
+      <c r="F15">
+        <v>47.212499999999999</v>
+      </c>
+      <c r="G15">
+        <v>7.0610507362573154</v>
+      </c>
+      <c r="H15">
+        <v>51</v>
+      </c>
+      <c r="I15">
+        <v>15.788989438846297</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="L15">
+        <v>7.1241063036004721</v>
+      </c>
+      <c r="M15">
+        <v>36</v>
+      </c>
+      <c r="N15">
+        <v>15.929985973785412</v>
+      </c>
+      <c r="O15"/>
+      <c r="P15">
+        <v>0.0011746201358800704</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <v>21</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16">
+        <v>27.961309523809526</v>
+      </c>
+      <c r="G16">
+        <v>5.3834019952288124</v>
+      </c>
+      <c r="H16">
+        <v>20.5</v>
+      </c>
+      <c r="I16">
+        <v>24.669847139512331</v>
+      </c>
+      <c r="J16"/>
+      <c r="K16">
+        <v>27.6875</v>
+      </c>
+      <c r="L16">
+        <v>5.2454504805638589</v>
+      </c>
+      <c r="M16">
+        <v>20</v>
+      </c>
+      <c r="N16">
+        <v>24.03767388132637</v>
+      </c>
+      <c r="O16"/>
+      <c r="P16">
+        <v>0.67487750151649173</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18">
         <v>20.5625</v>
       </c>
-      <c r="E8">
+      <c r="G18">
         <v>7.0989105678265876</v>
       </c>
-      <c r="F8">
+      <c r="H18">
         <v>15.937499999999998</v>
       </c>
-      <c r="G8">
+      <c r="I18">
         <v>12.295673781863277</v>
       </c>
-      <c r="H8"/>
-      <c r="I8">
+      <c r="J18"/>
+      <c r="K18">
         <v>27.4375</v>
       </c>
-      <c r="J8">
+      <c r="L18">
         <v>8.5697961615198306</v>
       </c>
-      <c r="K8">
+      <c r="M18">
         <v>20.3125</v>
       </c>
-      <c r="L8">
+      <c r="N18">
         <v>14.843322362261086</v>
       </c>
-      <c r="M8"/>
-      <c r="N8">
+      <c r="O18"/>
+      <c r="P18">
         <v>0.053270737593742561</v>
       </c>
-      <c r="O8" t="s">
-        <v>29</v>
+      <c r="Q18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19">
+        <v>25.199999999999999</v>
+      </c>
+      <c r="G19">
+        <v>6.9566851840513806</v>
+      </c>
+      <c r="H19">
+        <v>28.499999999999996</v>
+      </c>
+      <c r="I19">
+        <v>15.555620969604524</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19">
+        <v>16.287500000000001</v>
+      </c>
+      <c r="L19">
+        <v>5.9828400446610637</v>
+      </c>
+      <c r="M19">
+        <v>15.5</v>
+      </c>
+      <c r="N19">
+        <v>13.378037038370017</v>
+      </c>
+      <c r="O19"/>
+      <c r="P19">
+        <v>0.0052005450444311437</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>24</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20">
+        <v>27.919270833333332</v>
+      </c>
+      <c r="G20">
+        <v>5.1213609926120034</v>
+      </c>
+      <c r="H20">
+        <v>20.15625</v>
+      </c>
+      <c r="I20">
+        <v>25.089442440985955</v>
+      </c>
+      <c r="J20"/>
+      <c r="K20">
+        <v>26.5234375</v>
+      </c>
+      <c r="L20">
+        <v>5.0530765484454836</v>
+      </c>
+      <c r="M20">
+        <v>18.875</v>
+      </c>
+      <c r="N20">
+        <v>24.754918349830874</v>
+      </c>
+      <c r="O20"/>
+      <c r="P20">
+        <v>0.041337721192610075</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -751,7 +1225,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M130"/>
+  <dimension ref="A1:L131"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -765,16 +1239,15 @@
     <col min="6" max="6" width="8.85546875" customWidth="true"/>
     <col min="7" max="7" width="12.85546875" customWidth="true"/>
     <col min="8" max="8" width="15.7109375" customWidth="true"/>
-    <col min="9" max="9" width="17.140625" customWidth="true"/>
-    <col min="10" max="10" width="9.140625"/>
-    <col min="11" max="11" width="15" customWidth="true"/>
-    <col min="12" max="12" width="12" customWidth="true"/>
-    <col min="13" max="13" width="12.42578125" customWidth="true"/>
+    <col min="9" max="9" width="9.140625"/>
+    <col min="10" max="10" width="15" customWidth="true"/>
+    <col min="11" max="11" width="12" customWidth="true"/>
+    <col min="12" max="12" width="12.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -787,10 +1260,11 @@
       <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
-      <c r="M1"/>
     </row>
     <row r="2">
-      <c r="A2"/>
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
@@ -802,4997 +1276,4626 @@
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
-      <c r="M2"/>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
         <v>52</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I4"/>
+      <c r="J4" t="s">
         <v>53</v>
       </c>
-      <c r="J3"/>
-      <c r="K3" t="s">
+      <c r="K4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" t="s">
         <v>55</v>
-      </c>
-      <c r="L3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>104</v>
-      </c>
-      <c r="B4">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4">
-        <v>0.021225504344442918</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4"/>
-      <c r="K4">
-        <v>30.312499999999996</v>
-      </c>
-      <c r="L4">
-        <v>38.4375</v>
-      </c>
-      <c r="M4">
-        <v>8.1250000000000036</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="H5">
-        <v>0.0015547651779681492</v>
-      </c>
-      <c r="I5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5"/>
+        <v>0.021225504344442918</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5">
+        <v>30.312499999999996</v>
+      </c>
       <c r="K5">
-        <v>5.625</v>
+        <v>38.4375</v>
       </c>
       <c r="L5">
-        <v>15.625</v>
-      </c>
-      <c r="M5">
-        <v>10</v>
+        <v>8.1250000000000036</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="H6">
-        <v>4.4587072187728651e-07</v>
-      </c>
-      <c r="I6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6"/>
+        <v>0.0015547651779681492</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6">
+        <v>5.625</v>
+      </c>
       <c r="K6">
-        <v>0.625</v>
+        <v>15.625</v>
       </c>
       <c r="L6">
-        <v>9.6875</v>
-      </c>
-      <c r="M6">
-        <v>9.0625</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>238</v>
+        <v>128</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="H7">
-        <v>0.012127585257502056</v>
-      </c>
-      <c r="I7" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7"/>
+        <v>4.4587072187728651e-07</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7">
+        <v>0.625</v>
+      </c>
       <c r="K7">
-        <v>8.75</v>
+        <v>9.6875</v>
       </c>
       <c r="L7">
-        <v>14.6875</v>
-      </c>
-      <c r="M7">
-        <v>5.9375</v>
+        <v>9.0625</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>93</v>
+        <v>238</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="H8">
-        <v>0.027991815485665764</v>
-      </c>
-      <c r="I8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8"/>
+        <v>0.012127585257502056</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8">
+        <v>8.75</v>
+      </c>
       <c r="K8">
-        <v>9.0625</v>
+        <v>14.6875</v>
       </c>
       <c r="L8">
-        <v>5</v>
-      </c>
-      <c r="M8">
-        <v>-4.0625</v>
+        <v>5.9375</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H9">
-        <v>8.0118672854604743e-06</v>
-      </c>
-      <c r="I9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9"/>
+        <v>0.027991815485665764</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9">
+        <v>9.0625</v>
+      </c>
       <c r="K9">
-        <v>58.4375</v>
+        <v>5</v>
       </c>
       <c r="L9">
-        <v>39.6875</v>
-      </c>
-      <c r="M9">
-        <v>-18.75</v>
+        <v>-4.0625</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B10">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H10">
-        <v>0.03500384078362917</v>
-      </c>
-      <c r="I10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10"/>
+        <v>8.0118672854604743e-06</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10">
+        <v>58.4375</v>
+      </c>
       <c r="K10">
-        <v>67.8125</v>
+        <v>39.6875</v>
       </c>
       <c r="L10">
-        <v>58.75</v>
-      </c>
-      <c r="M10">
-        <v>-9.0625</v>
+        <v>-18.75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H11">
-        <v>0.049534613435626741</v>
-      </c>
-      <c r="I11" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11"/>
+        <v>0.03500384078362917</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11">
+        <v>67.8125</v>
+      </c>
       <c r="K11">
-        <v>5.3125</v>
+        <v>58.75</v>
       </c>
       <c r="L11">
-        <v>2.5</v>
-      </c>
-      <c r="M11">
-        <v>-2.8125</v>
+        <v>-9.0625</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B12">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H12">
-        <v>6.103515625e-05</v>
-      </c>
-      <c r="I12" t="s">
-        <v>54</v>
-      </c>
-      <c r="J12"/>
+        <v>0.049534613435626741</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12">
+        <v>5.3125</v>
+      </c>
       <c r="K12">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="L12">
-        <v>0.3125</v>
-      </c>
-      <c r="M12">
-        <v>-4.6875</v>
+        <v>-2.8125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H13">
-        <v>2.8552810734600921e-05</v>
-      </c>
-      <c r="I13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J13"/>
+        <v>6.103515625e-05</v>
+      </c>
+      <c r="I13"/>
+      <c r="J13">
+        <v>5</v>
+      </c>
       <c r="K13">
-        <v>15.625</v>
+        <v>0.3125</v>
       </c>
       <c r="L13">
-        <v>5.3125</v>
-      </c>
-      <c r="M13">
-        <v>-10.3125</v>
+        <v>-4.6875</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H14">
-        <v>1.8231202632073656e-05</v>
-      </c>
-      <c r="I14" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14"/>
+        <v>2.8552810734600921e-05</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14">
+        <v>15.625</v>
+      </c>
       <c r="K14">
-        <v>12.1875</v>
+        <v>5.3125</v>
       </c>
       <c r="L14">
-        <v>2.1875</v>
-      </c>
-      <c r="M14">
-        <v>-10</v>
+        <v>-10.3125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B15">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H15">
-        <v>3.8738723174042022e-06</v>
-      </c>
-      <c r="I15" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15"/>
+        <v>1.8231202632073656e-05</v>
+      </c>
+      <c r="I15"/>
+      <c r="J15">
+        <v>12.1875</v>
+      </c>
       <c r="K15">
-        <v>15.937499999999998</v>
+        <v>2.1875</v>
       </c>
       <c r="L15">
-        <v>4.375</v>
-      </c>
-      <c r="M15">
-        <v>-11.562499999999998</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>463</v>
+        <v>138</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H16">
-        <v>0.00024562825521151529</v>
-      </c>
-      <c r="I16" t="s">
-        <v>54</v>
-      </c>
-      <c r="J16"/>
+        <v>3.8738723174042022e-06</v>
+      </c>
+      <c r="I16"/>
+      <c r="J16">
+        <v>15.937499999999998</v>
+      </c>
       <c r="K16">
-        <v>60.624999999999993</v>
+        <v>4.375</v>
       </c>
       <c r="L16">
-        <v>49.6875</v>
-      </c>
-      <c r="M16">
-        <v>-10.937499999999993</v>
+        <v>-11.562499999999998</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="B17">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H17">
-        <v>0.039805112130969204</v>
-      </c>
-      <c r="I17" t="s">
-        <v>54</v>
-      </c>
-      <c r="J17"/>
+        <v>0.00024562825521151529</v>
+      </c>
+      <c r="I17"/>
+      <c r="J17">
+        <v>60.624999999999993</v>
+      </c>
       <c r="K17">
-        <v>15</v>
+        <v>49.6875</v>
       </c>
       <c r="L17">
-        <v>10.3125</v>
-      </c>
-      <c r="M17">
-        <v>-4.6875</v>
+        <v>-10.937499999999993</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B18">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H18">
-        <v>0.0016117737392180554</v>
-      </c>
-      <c r="I18" t="s">
-        <v>54</v>
-      </c>
-      <c r="J18"/>
+        <v>0.039805112130969204</v>
+      </c>
+      <c r="I18"/>
+      <c r="J18">
+        <v>15</v>
+      </c>
       <c r="K18">
-        <v>6.5625</v>
+        <v>10.3125</v>
       </c>
       <c r="L18">
-        <v>1.25</v>
-      </c>
-      <c r="M18">
-        <v>-5.3125</v>
+        <v>-4.6875</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
+        <v>477</v>
+      </c>
+      <c r="B19">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
         <v>41</v>
       </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
       <c r="D19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
-        <v>54</v>
-      </c>
-      <c r="J19"/>
+        <v>0.0016117737392180554</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19">
+        <v>6.5625</v>
+      </c>
       <c r="K19">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="L19">
-        <v>3.5000000000000004</v>
-      </c>
-      <c r="M19">
-        <v>0.50000000000000044</v>
+        <v>-5.3125</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H20">
-        <v>0.30278714410375834</v>
-      </c>
-      <c r="I20" t="s">
-        <v>54</v>
-      </c>
-      <c r="J20"/>
+        <v>1</v>
+      </c>
+      <c r="I20"/>
+      <c r="J20">
+        <v>3</v>
+      </c>
       <c r="K20">
-        <v>21</v>
+        <v>3.5000000000000004</v>
       </c>
       <c r="L20">
-        <v>17.5</v>
-      </c>
-      <c r="M20">
-        <v>-3.5</v>
+        <v>0.50000000000000044</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="B21">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H21">
-        <v>0.16923270970836776</v>
-      </c>
-      <c r="I21" t="s">
-        <v>54</v>
-      </c>
-      <c r="J21"/>
+        <v>0.30278714410375834</v>
+      </c>
+      <c r="I21"/>
+      <c r="J21">
+        <v>21</v>
+      </c>
       <c r="K21">
-        <v>26.5625</v>
+        <v>17.5</v>
       </c>
       <c r="L21">
-        <v>30.9375</v>
-      </c>
-      <c r="M21">
-        <v>4.375</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B22">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G22" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H22">
-        <v>0.28884436634648486</v>
-      </c>
-      <c r="I22" t="s">
-        <v>54</v>
-      </c>
-      <c r="J22"/>
+        <v>0.16923270970836776</v>
+      </c>
+      <c r="I22"/>
+      <c r="J22">
+        <v>26.5625</v>
+      </c>
       <c r="K22">
-        <v>7.8125</v>
+        <v>30.9375</v>
       </c>
       <c r="L22">
-        <v>9.6875</v>
-      </c>
-      <c r="M22">
-        <v>1.875</v>
+        <v>4.375</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H23">
-        <v>0.60764702617568567</v>
-      </c>
-      <c r="I23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J23"/>
+        <v>0.28884436634648486</v>
+      </c>
+      <c r="I23"/>
+      <c r="J23">
+        <v>7.8125</v>
+      </c>
       <c r="K23">
-        <v>3.4375</v>
+        <v>9.6875</v>
       </c>
       <c r="L23">
-        <v>4.375</v>
-      </c>
-      <c r="M23">
-        <v>0.9375</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B24">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G24" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H24">
-        <v>0.19494857010826153</v>
-      </c>
-      <c r="I24" t="s">
-        <v>54</v>
-      </c>
-      <c r="J24"/>
+        <v>0.60764702617568567</v>
+      </c>
+      <c r="I24"/>
+      <c r="J24">
+        <v>3.4375</v>
+      </c>
       <c r="K24">
-        <v>26.25</v>
+        <v>4.375</v>
       </c>
       <c r="L24">
-        <v>22.5</v>
-      </c>
-      <c r="M24">
-        <v>-3.75</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B25">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H25">
-        <v>0.76838803469659245</v>
-      </c>
-      <c r="I25" t="s">
-        <v>54</v>
-      </c>
-      <c r="J25"/>
+        <v>0.19494857010826153</v>
+      </c>
+      <c r="I25"/>
+      <c r="J25">
+        <v>26.25</v>
+      </c>
       <c r="K25">
-        <v>16.5625</v>
+        <v>22.5</v>
       </c>
       <c r="L25">
-        <v>15.937499999999998</v>
-      </c>
-      <c r="M25">
-        <v>-0.62500000000000178</v>
+        <v>-3.75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="B26">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G26" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H26">
-        <v>0.81854580838204338</v>
-      </c>
-      <c r="I26" t="s">
-        <v>54</v>
-      </c>
-      <c r="J26"/>
+        <v>0.76838803469659245</v>
+      </c>
+      <c r="I26"/>
+      <c r="J26">
+        <v>16.5625</v>
+      </c>
       <c r="K26">
-        <v>2.8125</v>
+        <v>15.937499999999998</v>
       </c>
       <c r="L26">
-        <v>3.125</v>
-      </c>
-      <c r="M26">
-        <v>0.3125</v>
+        <v>-0.62500000000000178</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B27">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G27" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H27">
-        <v>0.14036866077167334</v>
-      </c>
-      <c r="I27" t="s">
-        <v>54</v>
-      </c>
-      <c r="J27"/>
+        <v>0.81854580838204338</v>
+      </c>
+      <c r="I27"/>
+      <c r="J27">
+        <v>2.8125</v>
+      </c>
       <c r="K27">
-        <v>8.125</v>
+        <v>3.125</v>
       </c>
       <c r="L27">
-        <v>11.25</v>
-      </c>
-      <c r="M27">
-        <v>3.125</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B28">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G28" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H28">
-        <v>0.88523391447320166</v>
-      </c>
-      <c r="I28" t="s">
-        <v>54</v>
-      </c>
-      <c r="J28"/>
+        <v>0.14036866077167334</v>
+      </c>
+      <c r="I28"/>
+      <c r="J28">
+        <v>8.125</v>
+      </c>
       <c r="K28">
-        <v>8.125</v>
+        <v>11.25</v>
       </c>
       <c r="L28">
-        <v>7.8125</v>
-      </c>
-      <c r="M28">
-        <v>-0.3125</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
         <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G29" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H29">
-        <v>0.17275678785867774</v>
-      </c>
-      <c r="I29" t="s">
-        <v>54</v>
-      </c>
-      <c r="J29"/>
+        <v>0.88523391447320166</v>
+      </c>
+      <c r="I29"/>
+      <c r="J29">
+        <v>8.125</v>
+      </c>
       <c r="K29">
-        <v>15.937499999999998</v>
+        <v>7.8125</v>
       </c>
       <c r="L29">
-        <v>19.375</v>
-      </c>
-      <c r="M29">
-        <v>3.4375000000000018</v>
+        <v>-0.3125</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>432</v>
+        <v>147</v>
       </c>
       <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
         <v>43</v>
       </c>
-      <c r="C30" t="s">
-        <v>40</v>
-      </c>
       <c r="D30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G30" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H30">
-        <v>0.19640682531691567</v>
-      </c>
-      <c r="I30" t="s">
-        <v>54</v>
-      </c>
-      <c r="J30"/>
+        <v>0.17275678785867774</v>
+      </c>
+      <c r="I30"/>
+      <c r="J30">
+        <v>15.937499999999998</v>
+      </c>
       <c r="K30">
-        <v>19.09090909090909</v>
+        <v>19.375</v>
       </c>
       <c r="L30">
-        <v>15</v>
-      </c>
-      <c r="M30">
-        <v>-4.0909090909090899</v>
+        <v>3.4375000000000018</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>474</v>
+        <v>432</v>
       </c>
       <c r="B31">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G31" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H31">
-        <v>0.62052932894547974</v>
-      </c>
-      <c r="I31" t="s">
-        <v>54</v>
-      </c>
-      <c r="J31"/>
+        <v>0.19640682531691567</v>
+      </c>
+      <c r="I31"/>
+      <c r="J31">
+        <v>19.09090909090909</v>
+      </c>
       <c r="K31">
-        <v>9.6875</v>
+        <v>15</v>
       </c>
       <c r="L31">
-        <v>9.0625</v>
-      </c>
-      <c r="M31">
-        <v>-0.625</v>
+        <v>-4.0909090909090899</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>82</v>
+        <v>474</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G32" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="H32">
-        <v>0.0046777349810472662</v>
-      </c>
-      <c r="I32" t="s">
-        <v>54</v>
-      </c>
-      <c r="J32"/>
+        <v>0.62052932894547974</v>
+      </c>
+      <c r="I32"/>
+      <c r="J32">
+        <v>9.6875</v>
+      </c>
       <c r="K32">
-        <v>1.5625</v>
+        <v>9.0625</v>
       </c>
       <c r="L32">
-        <v>5.3125</v>
-      </c>
-      <c r="M32">
-        <v>3.75</v>
+        <v>-0.625</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B33">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="H33">
-        <v>0.017095601695123197</v>
-      </c>
-      <c r="I33" t="s">
-        <v>54</v>
-      </c>
-      <c r="J33"/>
+        <v>0.0046777349810472662</v>
+      </c>
+      <c r="I33"/>
+      <c r="J33">
+        <v>1.5625</v>
+      </c>
       <c r="K33">
-        <v>30.625</v>
+        <v>5.3125</v>
       </c>
       <c r="L33">
-        <v>37.1875</v>
-      </c>
-      <c r="M33">
-        <v>6.5625</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="B34">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G34" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="H34">
-        <v>0.00064674912257647627</v>
-      </c>
-      <c r="I34" t="s">
-        <v>54</v>
-      </c>
-      <c r="J34"/>
+        <v>0.017095601695123197</v>
+      </c>
+      <c r="I34"/>
+      <c r="J34">
+        <v>30.625</v>
+      </c>
       <c r="K34">
-        <v>0.625</v>
+        <v>37.1875</v>
       </c>
       <c r="L34">
-        <v>5.625</v>
-      </c>
-      <c r="M34">
-        <v>5</v>
+        <v>6.5625</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>446</v>
+        <v>128</v>
       </c>
       <c r="B35">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G35" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="H35">
-        <v>0.040853647948494505</v>
-      </c>
-      <c r="I35" t="s">
-        <v>54</v>
-      </c>
-      <c r="J35"/>
+        <v>0.00064674912257647627</v>
+      </c>
+      <c r="I35"/>
+      <c r="J35">
+        <v>0.625</v>
+      </c>
       <c r="K35">
-        <v>2.7272727272727271</v>
+        <v>5.625</v>
       </c>
       <c r="L35">
-        <v>7.2727272727272725</v>
-      </c>
-      <c r="M35">
-        <v>4.545454545454545</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>43</v>
+        <v>446</v>
       </c>
       <c r="B36">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="H36">
-        <v>0.0016414839422887767</v>
-      </c>
-      <c r="I36" t="s">
-        <v>54</v>
-      </c>
-      <c r="J36"/>
+        <v>0.040853647948494505</v>
+      </c>
+      <c r="I36"/>
+      <c r="J36">
+        <v>2.7272727272727271</v>
+      </c>
       <c r="K36">
-        <v>54.5</v>
+        <v>7.2727272727272725</v>
       </c>
       <c r="L36">
-        <v>41.5</v>
-      </c>
-      <c r="M36">
-        <v>-13</v>
+        <v>4.545454545454545</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G37" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H37">
-        <v>0.0070583320485281056</v>
-      </c>
-      <c r="I37" t="s">
-        <v>54</v>
-      </c>
-      <c r="J37"/>
+        <v>0.0016414839422887767</v>
+      </c>
+      <c r="I37"/>
+      <c r="J37">
+        <v>54.5</v>
+      </c>
       <c r="K37">
-        <v>7.8125</v>
+        <v>41.5</v>
       </c>
       <c r="L37">
-        <v>3.125</v>
-      </c>
-      <c r="M37">
-        <v>-4.6875</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B38">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G38" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H38">
-        <v>4.5526496508335481e-05</v>
-      </c>
-      <c r="I38" t="s">
-        <v>54</v>
-      </c>
-      <c r="J38"/>
+        <v>0.0070583320485281056</v>
+      </c>
+      <c r="I38"/>
+      <c r="J38">
+        <v>7.8125</v>
+      </c>
       <c r="K38">
-        <v>50.3125</v>
+        <v>3.125</v>
       </c>
       <c r="L38">
-        <v>32.5</v>
-      </c>
-      <c r="M38">
-        <v>-17.8125</v>
+        <v>-4.6875</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G39" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H39">
-        <v>0.0067143897855494843</v>
-      </c>
-      <c r="I39" t="s">
-        <v>54</v>
-      </c>
-      <c r="J39"/>
+        <v>4.5526496508335481e-05</v>
+      </c>
+      <c r="I39"/>
+      <c r="J39">
+        <v>50.3125</v>
+      </c>
       <c r="K39">
-        <v>5.625</v>
+        <v>32.5</v>
       </c>
       <c r="L39">
-        <v>1.5625</v>
-      </c>
-      <c r="M39">
-        <v>-4.0625</v>
+        <v>-17.8125</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G40" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H40">
-        <v>9.2255334663581589e-07</v>
-      </c>
-      <c r="I40" t="s">
-        <v>54</v>
-      </c>
-      <c r="J40"/>
+        <v>0.0067143897855494843</v>
+      </c>
+      <c r="I40"/>
+      <c r="J40">
+        <v>5.625</v>
+      </c>
       <c r="K40">
-        <v>25.9375</v>
+        <v>1.5625</v>
       </c>
       <c r="L40">
-        <v>15.3125</v>
-      </c>
-      <c r="M40">
-        <v>-10.625</v>
+        <v>-4.0625</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="B41">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G41" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H41">
-        <v>0.0034950177780875055</v>
-      </c>
-      <c r="I41" t="s">
-        <v>54</v>
-      </c>
-      <c r="J41"/>
+        <v>9.2255334663581589e-07</v>
+      </c>
+      <c r="I41"/>
+      <c r="J41">
+        <v>25.9375</v>
+      </c>
       <c r="K41">
-        <v>8.75</v>
+        <v>15.3125</v>
       </c>
       <c r="L41">
-        <v>3.125</v>
-      </c>
-      <c r="M41">
-        <v>-5.625</v>
+        <v>-10.625</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B42">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G42" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H42">
-        <v>0.0061308544209357435</v>
-      </c>
-      <c r="I42" t="s">
-        <v>54</v>
-      </c>
-      <c r="J42"/>
+        <v>0.0034950177780875055</v>
+      </c>
+      <c r="I42"/>
+      <c r="J42">
+        <v>8.75</v>
+      </c>
       <c r="K42">
-        <v>16.25</v>
+        <v>3.125</v>
       </c>
       <c r="L42">
-        <v>8.125</v>
-      </c>
-      <c r="M42">
-        <v>-8.125</v>
+        <v>-5.625</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B43">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G43" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H43">
-        <v>0.0085736144162281147</v>
-      </c>
-      <c r="I43" t="s">
-        <v>54</v>
-      </c>
-      <c r="J43"/>
+        <v>0.0061308544209357435</v>
+      </c>
+      <c r="I43"/>
+      <c r="J43">
+        <v>16.25</v>
+      </c>
       <c r="K43">
-        <v>21.25</v>
+        <v>8.125</v>
       </c>
       <c r="L43">
-        <v>13.4375</v>
-      </c>
-      <c r="M43">
-        <v>-7.8125</v>
+        <v>-8.125</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>432</v>
+        <v>138</v>
       </c>
       <c r="B44">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G44" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H44">
-        <v>0.00087464057324429176</v>
-      </c>
-      <c r="I44" t="s">
-        <v>54</v>
-      </c>
-      <c r="J44"/>
+        <v>0.0085736144162281147</v>
+      </c>
+      <c r="I44"/>
+      <c r="J44">
+        <v>21.25</v>
+      </c>
       <c r="K44">
-        <v>39.545454545454547</v>
+        <v>13.4375</v>
       </c>
       <c r="L44">
-        <v>27.727272727272727</v>
-      </c>
-      <c r="M44">
-        <v>-11.81818181818182</v>
+        <v>-7.8125</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>463</v>
+        <v>432</v>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H45">
-        <v>5.0649899645037714e-06</v>
-      </c>
-      <c r="I45" t="s">
-        <v>54</v>
-      </c>
-      <c r="J45"/>
+        <v>0.00087464057324429176</v>
+      </c>
+      <c r="I45"/>
+      <c r="J45">
+        <v>39.545454545454547</v>
+      </c>
       <c r="K45">
-        <v>62.187499999999993</v>
+        <v>27.727272727272727</v>
       </c>
       <c r="L45">
-        <v>45.9375</v>
-      </c>
-      <c r="M45">
-        <v>-16.249999999999993</v>
+        <v>-11.81818181818182</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B46">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H46">
-        <v>0.023193359375</v>
-      </c>
-      <c r="I46" t="s">
-        <v>54</v>
-      </c>
-      <c r="J46"/>
+        <v>5.0649899645037714e-06</v>
+      </c>
+      <c r="I46"/>
+      <c r="J46">
+        <v>62.187499999999993</v>
+      </c>
       <c r="K46">
-        <v>4.375</v>
+        <v>45.9375</v>
       </c>
       <c r="L46">
-        <v>0.9375</v>
-      </c>
-      <c r="M46">
-        <v>-3.4375</v>
+        <v>-16.249999999999993</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="B47">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H47">
-        <v>0.030015571150645251</v>
-      </c>
-      <c r="I47" t="s">
-        <v>54</v>
-      </c>
-      <c r="J47"/>
+        <v>0.023193359375</v>
+      </c>
+      <c r="I47"/>
+      <c r="J47">
+        <v>4.375</v>
+      </c>
       <c r="K47">
-        <v>10.625</v>
+        <v>0.9375</v>
       </c>
       <c r="L47">
-        <v>6.25</v>
-      </c>
-      <c r="M47">
-        <v>-4.375</v>
+        <v>-3.4375</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>42</v>
+        <v>479</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G48" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="H48">
-        <v>0.13749093064722026</v>
-      </c>
-      <c r="I48" t="s">
-        <v>54</v>
-      </c>
-      <c r="J48"/>
+        <v>0.030015571150645251</v>
+      </c>
+      <c r="I48"/>
+      <c r="J48">
+        <v>10.625</v>
+      </c>
       <c r="K48">
-        <v>12</v>
+        <v>6.25</v>
       </c>
       <c r="L48">
-        <v>19.5</v>
-      </c>
-      <c r="M48">
-        <v>7.5</v>
+        <v>-4.375</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B49">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G49" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H49">
-        <v>0.86180443304901089</v>
-      </c>
-      <c r="I49" t="s">
-        <v>54</v>
-      </c>
-      <c r="J49"/>
+        <v>0.13749093064722026</v>
+      </c>
+      <c r="I49"/>
+      <c r="J49">
+        <v>12</v>
+      </c>
       <c r="K49">
-        <v>14.000000000000002</v>
+        <v>19.5</v>
       </c>
       <c r="L49">
-        <v>14.000000000000002</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D50" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H50">
-        <v>0.57526843887397139</v>
-      </c>
-      <c r="I50" t="s">
-        <v>54</v>
-      </c>
-      <c r="J50"/>
+        <v>0.86180443304901089</v>
+      </c>
+      <c r="I50"/>
+      <c r="J50">
+        <v>14.000000000000002</v>
+      </c>
       <c r="K50">
-        <v>9</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="L50">
-        <v>6.5</v>
-      </c>
-      <c r="M50">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G51" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H51">
-        <v>0.95742016510867056</v>
-      </c>
-      <c r="I51" t="s">
-        <v>54</v>
-      </c>
-      <c r="J51"/>
+        <v>0.57526843887397139</v>
+      </c>
+      <c r="I51"/>
+      <c r="J51">
+        <v>9</v>
+      </c>
       <c r="K51">
-        <v>63.5</v>
+        <v>6.5</v>
       </c>
       <c r="L51">
-        <v>63</v>
-      </c>
-      <c r="M51">
-        <v>-0.5</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B52">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D52" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G52" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H52">
-        <v>0.27327787605936421</v>
-      </c>
-      <c r="I52" t="s">
-        <v>54</v>
-      </c>
-      <c r="J52"/>
+        <v>0.95742016510867056</v>
+      </c>
+      <c r="I52"/>
+      <c r="J52">
+        <v>63.5</v>
+      </c>
       <c r="K52">
-        <v>9.375</v>
+        <v>63</v>
       </c>
       <c r="L52">
-        <v>11.875</v>
-      </c>
-      <c r="M52">
-        <v>2.5</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B53">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G53" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H53">
-        <v>0.15866510213887189</v>
-      </c>
-      <c r="I53" t="s">
-        <v>54</v>
-      </c>
-      <c r="J53"/>
+        <v>0.27327787605936421</v>
+      </c>
+      <c r="I53"/>
+      <c r="J53">
+        <v>9.375</v>
+      </c>
       <c r="K53">
-        <v>7.1874999999999991</v>
+        <v>11.875</v>
       </c>
       <c r="L53">
-        <v>9.375</v>
-      </c>
-      <c r="M53">
-        <v>2.1875000000000009</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B54">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D54" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G54" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H54">
-        <v>0.77892202427637147</v>
-      </c>
-      <c r="I54" t="s">
-        <v>54</v>
-      </c>
-      <c r="J54"/>
+        <v>0.15866510213887189</v>
+      </c>
+      <c r="I54"/>
+      <c r="J54">
+        <v>7.1874999999999991</v>
+      </c>
       <c r="K54">
-        <v>9.6875</v>
+        <v>9.375</v>
       </c>
       <c r="L54">
-        <v>8.75</v>
-      </c>
-      <c r="M54">
-        <v>-0.9375</v>
+        <v>2.1875000000000009</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B55">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D55" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G55" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H55">
-        <v>0.26182288997064507</v>
-      </c>
-      <c r="I55" t="s">
-        <v>54</v>
-      </c>
-      <c r="J55"/>
+        <v>0.77892202427637147</v>
+      </c>
+      <c r="I55"/>
+      <c r="J55">
+        <v>9.6875</v>
+      </c>
       <c r="K55">
-        <v>18.125</v>
+        <v>8.75</v>
       </c>
       <c r="L55">
-        <v>14.6875</v>
-      </c>
-      <c r="M55">
-        <v>-3.4375</v>
+        <v>-0.9375</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B56">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G56" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H56">
-        <v>0.55314280534764493</v>
-      </c>
-      <c r="I56" t="s">
-        <v>54</v>
-      </c>
-      <c r="J56"/>
+        <v>0.26182288997064507</v>
+      </c>
+      <c r="I56"/>
+      <c r="J56">
+        <v>18.125</v>
+      </c>
       <c r="K56">
-        <v>34.375</v>
+        <v>14.6875</v>
       </c>
       <c r="L56">
-        <v>36.25</v>
-      </c>
-      <c r="M56">
-        <v>1.875</v>
+        <v>-3.4375</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B57">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G57" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H57">
-        <v>0.33035479368235215</v>
-      </c>
-      <c r="I57" t="s">
-        <v>54</v>
-      </c>
-      <c r="J57"/>
+        <v>0.55314280534764493</v>
+      </c>
+      <c r="I57"/>
+      <c r="J57">
+        <v>34.375</v>
+      </c>
       <c r="K57">
-        <v>8.75</v>
+        <v>36.25</v>
       </c>
       <c r="L57">
-        <v>10.9375</v>
-      </c>
-      <c r="M57">
-        <v>2.1875</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B58">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D58" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G58" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H58">
-        <v>0.89159340303770696</v>
-      </c>
-      <c r="I58" t="s">
-        <v>54</v>
-      </c>
-      <c r="J58"/>
+        <v>0.33035479368235215</v>
+      </c>
+      <c r="I58"/>
+      <c r="J58">
+        <v>8.75</v>
+      </c>
       <c r="K58">
-        <v>12.1875</v>
+        <v>10.9375</v>
       </c>
       <c r="L58">
-        <v>11.875</v>
-      </c>
-      <c r="M58">
-        <v>-0.3125</v>
+        <v>2.1875</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B59">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D59" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G59" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H59">
-        <v>0.50226099416773784</v>
-      </c>
-      <c r="I59" t="s">
-        <v>54</v>
-      </c>
-      <c r="J59"/>
+        <v>0.89159340303770696</v>
+      </c>
+      <c r="I59"/>
+      <c r="J59">
+        <v>12.1875</v>
+      </c>
       <c r="K59">
-        <v>6.25</v>
+        <v>11.875</v>
       </c>
       <c r="L59">
-        <v>5</v>
-      </c>
-      <c r="M59">
-        <v>-1.25</v>
+        <v>-0.3125</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B60">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D60" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H60">
-        <v>0.14507695028788486</v>
-      </c>
-      <c r="I60" t="s">
-        <v>54</v>
-      </c>
-      <c r="J60"/>
+        <v>0.50226099416773784</v>
+      </c>
+      <c r="I60"/>
+      <c r="J60">
+        <v>6.25</v>
+      </c>
       <c r="K60">
-        <v>17.1875</v>
+        <v>5</v>
       </c>
       <c r="L60">
-        <v>13.125</v>
-      </c>
-      <c r="M60">
-        <v>-4.0625</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B61">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G61" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H61">
-        <v>0.25683925795785667</v>
-      </c>
-      <c r="I61" t="s">
-        <v>54</v>
-      </c>
-      <c r="J61"/>
+        <v>0.14507695028788486</v>
+      </c>
+      <c r="I61"/>
+      <c r="J61">
+        <v>17.1875</v>
+      </c>
       <c r="K61">
-        <v>24.0625</v>
+        <v>13.125</v>
       </c>
       <c r="L61">
-        <v>22.1875</v>
-      </c>
-      <c r="M61">
-        <v>-1.875</v>
+        <v>-4.0625</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B62">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D62" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G62" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H62">
-        <v>0.73949558308014196</v>
-      </c>
-      <c r="I62" t="s">
-        <v>54</v>
-      </c>
-      <c r="J62"/>
+        <v>0.25683925795785667</v>
+      </c>
+      <c r="I62"/>
+      <c r="J62">
+        <v>24.0625</v>
+      </c>
       <c r="K62">
-        <v>8.75</v>
+        <v>22.1875</v>
       </c>
       <c r="L62">
-        <v>8.125</v>
-      </c>
-      <c r="M62">
-        <v>-0.625</v>
+        <v>-1.875</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B63">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C63" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D63" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G63" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H63">
-        <v>1</v>
-      </c>
-      <c r="I63" t="s">
-        <v>54</v>
-      </c>
-      <c r="J63"/>
+        <v>0.73949558308014196</v>
+      </c>
+      <c r="I63"/>
+      <c r="J63">
+        <v>8.75</v>
+      </c>
       <c r="K63">
-        <v>4.0625</v>
+        <v>8.125</v>
       </c>
       <c r="L63">
-        <v>4.0625</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
+        <v>-0.625</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B64">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D64" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H64">
-        <v>0.71247178702143543</v>
-      </c>
-      <c r="I64" t="s">
-        <v>54</v>
-      </c>
-      <c r="J64"/>
+        <v>1</v>
+      </c>
+      <c r="I64"/>
+      <c r="J64">
+        <v>4.0625</v>
+      </c>
       <c r="K64">
-        <v>4.375</v>
+        <v>4.0625</v>
       </c>
       <c r="L64">
-        <v>4.0625</v>
-      </c>
-      <c r="M64">
-        <v>-0.3125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B65">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C65" t="s">
         <v>39</v>
       </c>
       <c r="D65" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G65" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H65">
-        <v>0.96070694497368392</v>
-      </c>
-      <c r="I65" t="s">
-        <v>54</v>
-      </c>
-      <c r="J65"/>
+        <v>0.71247178702143543</v>
+      </c>
+      <c r="I65"/>
+      <c r="J65">
+        <v>4.375</v>
+      </c>
       <c r="K65">
-        <v>41.5625</v>
+        <v>4.0625</v>
       </c>
       <c r="L65">
-        <v>41.5625</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
+        <v>-0.3125</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>238</v>
+        <v>147</v>
       </c>
       <c r="B66">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D66" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G66" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H66">
-        <v>0.3763256972729524</v>
-      </c>
-      <c r="I66" t="s">
-        <v>54</v>
-      </c>
-      <c r="J66"/>
+        <v>0.96070694497368392</v>
+      </c>
+      <c r="I66"/>
+      <c r="J66">
+        <v>41.5625</v>
+      </c>
       <c r="K66">
-        <v>29.375</v>
+        <v>41.5625</v>
       </c>
       <c r="L66">
-        <v>27.187499999999996</v>
-      </c>
-      <c r="M66">
-        <v>-2.1875000000000036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>165</v>
+        <v>238</v>
       </c>
       <c r="B67">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D67" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F67" t="s">
         <v>7</v>
       </c>
       <c r="G67" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="H67">
-        <v>0.012419330651552278</v>
-      </c>
-      <c r="I67" t="s">
-        <v>54</v>
-      </c>
-      <c r="J67"/>
+        <v>0.3763256972729524</v>
+      </c>
+      <c r="I67"/>
+      <c r="J67">
+        <v>29.375</v>
+      </c>
       <c r="K67">
-        <v>0.9375</v>
+        <v>27.187499999999996</v>
       </c>
       <c r="L67">
-        <v>4.0625</v>
-      </c>
-      <c r="M67">
-        <v>3.125</v>
+        <v>-2.1875000000000036</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>273</v>
+        <v>165</v>
       </c>
       <c r="B68">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C68" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E68" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G68" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="H68">
-        <v>0.00041260901036716685</v>
-      </c>
-      <c r="I68" t="s">
-        <v>54</v>
-      </c>
-      <c r="J68"/>
+        <v>0.012419330651552278</v>
+      </c>
+      <c r="I68"/>
+      <c r="J68">
+        <v>0.9375</v>
+      </c>
       <c r="K68">
-        <v>2.8125</v>
+        <v>4.0625</v>
       </c>
       <c r="L68">
-        <v>9.0625</v>
-      </c>
-      <c r="M68">
-        <v>6.25</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B69">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C69" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G69" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="H69">
-        <v>0.041087224527821306</v>
-      </c>
-      <c r="I69" t="s">
-        <v>54</v>
-      </c>
-      <c r="J69"/>
+        <v>0.00041260901036716685</v>
+      </c>
+      <c r="I69"/>
+      <c r="J69">
+        <v>2.8125</v>
+      </c>
       <c r="K69">
-        <v>5.3125</v>
+        <v>9.0625</v>
       </c>
       <c r="L69">
-        <v>8.75</v>
-      </c>
-      <c r="M69">
-        <v>3.4375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B70">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C70" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E70" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G70" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="H70">
-        <v>0.0087849534510686562</v>
-      </c>
-      <c r="I70" t="s">
-        <v>54</v>
-      </c>
-      <c r="J70"/>
+        <v>0.041087224527821306</v>
+      </c>
+      <c r="I70"/>
+      <c r="J70">
+        <v>5.3125</v>
+      </c>
       <c r="K70">
-        <v>19.6875</v>
+        <v>8.75</v>
       </c>
       <c r="L70">
-        <v>27.187499999999996</v>
-      </c>
-      <c r="M70">
-        <v>7.4999999999999964</v>
+        <v>3.4375</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>365</v>
+        <v>287</v>
       </c>
       <c r="B71">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C71" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E71" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G71" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="H71">
-        <v>0.0005556671828002383</v>
-      </c>
-      <c r="I71" t="s">
-        <v>54</v>
-      </c>
-      <c r="J71"/>
+        <v>0.0087849534510686562</v>
+      </c>
+      <c r="I71"/>
+      <c r="J71">
+        <v>19.6875</v>
+      </c>
       <c r="K71">
-        <v>12.1875</v>
+        <v>27.187499999999996</v>
       </c>
       <c r="L71">
-        <v>18.75</v>
-      </c>
-      <c r="M71">
-        <v>6.5625</v>
+        <v>7.4999999999999964</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="B72">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C72" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D72" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G72" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="H72">
-        <v>0.049440012924276543</v>
-      </c>
-      <c r="I72" t="s">
-        <v>54</v>
-      </c>
-      <c r="J72"/>
+        <v>0.0005556671828002383</v>
+      </c>
+      <c r="I72"/>
+      <c r="J72">
+        <v>12.1875</v>
+      </c>
       <c r="K72">
-        <v>28.125</v>
+        <v>18.75</v>
       </c>
       <c r="L72">
-        <v>34.0625</v>
-      </c>
-      <c r="M72">
-        <v>5.9375</v>
+        <v>6.5625</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>3</v>
+        <v>389</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G73" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="H73">
-        <v>0.041305061337643445</v>
-      </c>
-      <c r="I73" t="s">
-        <v>54</v>
-      </c>
-      <c r="J73"/>
+        <v>0.049440012924276543</v>
+      </c>
+      <c r="I73"/>
+      <c r="J73">
+        <v>28.125</v>
+      </c>
       <c r="K73">
-        <v>58.999999999999993</v>
+        <v>34.0625</v>
       </c>
       <c r="L73">
-        <v>46.999999999999993</v>
-      </c>
-      <c r="M73">
-        <v>-12</v>
+        <v>5.9375</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D74" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G74" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H74">
-        <v>0.044936936501333291</v>
-      </c>
-      <c r="I74" t="s">
-        <v>54</v>
-      </c>
-      <c r="J74"/>
+        <v>0.041305061337643445</v>
+      </c>
+      <c r="I74"/>
+      <c r="J74">
+        <v>58.999999999999993</v>
+      </c>
       <c r="K74">
-        <v>59.499999999999993</v>
+        <v>46.999999999999993</v>
       </c>
       <c r="L74">
-        <v>51</v>
-      </c>
-      <c r="M74">
-        <v>-8.4999999999999929</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B75">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D75" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G75" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H75">
-        <v>0.0015044046693642446</v>
-      </c>
-      <c r="I75" t="s">
-        <v>54</v>
-      </c>
-      <c r="J75"/>
+        <v>0.044936936501333291</v>
+      </c>
+      <c r="I75"/>
+      <c r="J75">
+        <v>59.499999999999993</v>
+      </c>
       <c r="K75">
         <v>51</v>
       </c>
       <c r="L75">
-        <v>36</v>
-      </c>
-      <c r="M75">
-        <v>-15</v>
+        <v>-8.4999999999999929</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>155</v>
+        <v>35</v>
       </c>
       <c r="B76">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D76" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E76" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G76" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H76">
-        <v>1.155600930040824e-05</v>
-      </c>
-      <c r="I76" t="s">
-        <v>54</v>
-      </c>
-      <c r="J76"/>
+        <v>0.0015044046693642446</v>
+      </c>
+      <c r="I76"/>
+      <c r="J76">
+        <v>51</v>
+      </c>
       <c r="K76">
-        <v>45.625</v>
+        <v>36</v>
       </c>
       <c r="L76">
-        <v>29.0625</v>
-      </c>
-      <c r="M76">
-        <v>-16.5625</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B77">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D77" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E77" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G77" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H77">
-        <v>6.356377979330797e-05</v>
-      </c>
-      <c r="I77" t="s">
-        <v>54</v>
-      </c>
-      <c r="J77"/>
+        <v>1.155600930040824e-05</v>
+      </c>
+      <c r="I77"/>
+      <c r="J77">
+        <v>45.625</v>
+      </c>
       <c r="K77">
-        <v>20.9375</v>
+        <v>29.0625</v>
       </c>
       <c r="L77">
-        <v>10.9375</v>
-      </c>
-      <c r="M77">
-        <v>-10</v>
+        <v>-16.5625</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C78" t="s">
         <v>43</v>
       </c>
       <c r="D78" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E78" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G78" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="H78">
-        <v>0.14034842076310197</v>
-      </c>
-      <c r="I78" t="s">
-        <v>54</v>
-      </c>
-      <c r="J78"/>
+        <v>6.356377979330797e-05</v>
+      </c>
+      <c r="I78"/>
+      <c r="J78">
+        <v>20.9375</v>
+      </c>
       <c r="K78">
-        <v>42</v>
+        <v>10.9375</v>
       </c>
       <c r="L78">
-        <v>48</v>
-      </c>
-      <c r="M78">
-        <v>6</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D79" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E79" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G79" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H79">
-        <v>0.20554873051229239</v>
-      </c>
-      <c r="I79" t="s">
-        <v>54</v>
-      </c>
-      <c r="J79"/>
+        <v>0.14034842076310197</v>
+      </c>
+      <c r="I79"/>
+      <c r="J79">
+        <v>42</v>
+      </c>
       <c r="K79">
-        <v>18.5</v>
+        <v>48</v>
       </c>
       <c r="L79">
-        <v>23.499999999999996</v>
-      </c>
-      <c r="M79">
-        <v>4.9999999999999964</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B80">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D80" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G80" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H80">
-        <v>0.93244246977251455</v>
-      </c>
-      <c r="I80" t="s">
-        <v>54</v>
-      </c>
-      <c r="J80"/>
+        <v>0.20554873051229239</v>
+      </c>
+      <c r="I80"/>
+      <c r="J80">
+        <v>18.5</v>
+      </c>
       <c r="K80">
-        <v>32.5</v>
+        <v>23.499999999999996</v>
       </c>
       <c r="L80">
-        <v>33.5</v>
-      </c>
-      <c r="M80">
-        <v>1</v>
+        <v>4.9999999999999964</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B81">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D81" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E81" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G81" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H81">
-        <v>0.46979618651349719</v>
-      </c>
-      <c r="I81" t="s">
-        <v>54</v>
-      </c>
-      <c r="J81"/>
+        <v>0.93244246977251455</v>
+      </c>
+      <c r="I81"/>
+      <c r="J81">
+        <v>32.5</v>
+      </c>
       <c r="K81">
-        <v>21.5</v>
+        <v>33.5</v>
       </c>
       <c r="L81">
-        <v>18.5</v>
-      </c>
-      <c r="M81">
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B82">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C82" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D82" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E82" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G82" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H82">
-        <v>0.89473375429865631</v>
-      </c>
-      <c r="I82" t="s">
-        <v>54</v>
-      </c>
-      <c r="J82"/>
+        <v>0.46979618651349719</v>
+      </c>
+      <c r="I82"/>
+      <c r="J82">
+        <v>21.5</v>
+      </c>
       <c r="K82">
-        <v>36</v>
+        <v>18.5</v>
       </c>
       <c r="L82">
-        <v>37</v>
-      </c>
-      <c r="M82">
-        <v>1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B83">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C83" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D83" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E83" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G83" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H83">
-        <v>0.35619235068581367</v>
-      </c>
-      <c r="I83" t="s">
-        <v>54</v>
-      </c>
-      <c r="J83"/>
+        <v>0.89473375429865631</v>
+      </c>
+      <c r="I83"/>
+      <c r="J83">
+        <v>36</v>
+      </c>
       <c r="K83">
-        <v>17.5</v>
+        <v>37</v>
       </c>
       <c r="L83">
-        <v>20</v>
-      </c>
-      <c r="M83">
-        <v>2.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B84">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C84" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D84" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E84" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G84" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H84">
-        <v>0.47203266633101337</v>
-      </c>
-      <c r="I84" t="s">
-        <v>54</v>
-      </c>
-      <c r="J84"/>
+        <v>0.35619235068581367</v>
+      </c>
+      <c r="I84"/>
+      <c r="J84">
+        <v>17.5</v>
+      </c>
       <c r="K84">
-        <v>118.5</v>
+        <v>20</v>
       </c>
       <c r="L84">
-        <v>115.5</v>
-      </c>
-      <c r="M84">
-        <v>-3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D85" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E85" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G85" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H85">
-        <v>0.65472084601857705</v>
-      </c>
-      <c r="I85" t="s">
-        <v>54</v>
-      </c>
-      <c r="J85"/>
+        <v>0.47203266633101337</v>
+      </c>
+      <c r="I85"/>
+      <c r="J85">
+        <v>118.5</v>
+      </c>
       <c r="K85">
-        <v>8</v>
+        <v>115.5</v>
       </c>
       <c r="L85">
-        <v>7.0000000000000009</v>
-      </c>
-      <c r="M85">
-        <v>-0.99999999999999911</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B86">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D86" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E86" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G86" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H86">
-        <v>0.53303110108910767</v>
-      </c>
-      <c r="I86" t="s">
-        <v>54</v>
-      </c>
-      <c r="J86"/>
+        <v>0.65472084601857705</v>
+      </c>
+      <c r="I86"/>
+      <c r="J86">
+        <v>8</v>
+      </c>
       <c r="K86">
-        <v>20.5</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="L86">
-        <v>18</v>
-      </c>
-      <c r="M86">
-        <v>-2.5</v>
+        <v>-0.99999999999999911</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B87">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D87" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E87" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G87" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H87">
-        <v>1</v>
-      </c>
-      <c r="I87" t="s">
-        <v>54</v>
-      </c>
-      <c r="J87"/>
+        <v>0.53303110108910767</v>
+      </c>
+      <c r="I87"/>
+      <c r="J87">
+        <v>20.5</v>
+      </c>
       <c r="K87">
-        <v>2.5</v>
+        <v>18</v>
       </c>
       <c r="L87">
-        <v>3</v>
-      </c>
-      <c r="M87">
-        <v>0.5</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B88">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D88" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E88" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G88" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H88">
-        <v>0.26380424356819143</v>
-      </c>
-      <c r="I88" t="s">
-        <v>54</v>
-      </c>
-      <c r="J88"/>
+        <v>1</v>
+      </c>
+      <c r="I88"/>
+      <c r="J88">
+        <v>2.5</v>
+      </c>
       <c r="K88">
-        <v>28.499999999999996</v>
+        <v>3</v>
       </c>
       <c r="L88">
-        <v>24.5</v>
-      </c>
-      <c r="M88">
-        <v>-3.9999999999999964</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B89">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C89" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D89" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G89" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H89">
-        <v>0.2836505094609848</v>
-      </c>
-      <c r="I89" t="s">
-        <v>54</v>
-      </c>
-      <c r="J89"/>
+        <v>0.26380424356819143</v>
+      </c>
+      <c r="I89"/>
+      <c r="J89">
+        <v>28.499999999999996</v>
+      </c>
       <c r="K89">
-        <v>51.5</v>
+        <v>24.5</v>
       </c>
       <c r="L89">
-        <v>46.999999999999993</v>
-      </c>
-      <c r="M89">
-        <v>-4.5000000000000071</v>
+        <v>-3.9999999999999964</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>278</v>
+        <v>38</v>
       </c>
       <c r="B90">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D90" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E90" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G90" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H90">
-        <v>0.171875</v>
-      </c>
-      <c r="I90" t="s">
-        <v>54</v>
-      </c>
-      <c r="J90"/>
+        <v>0.2836505094609848</v>
+      </c>
+      <c r="I90"/>
+      <c r="J90">
+        <v>51.5</v>
+      </c>
       <c r="K90">
-        <v>2.5</v>
+        <v>46.999999999999993</v>
       </c>
       <c r="L90">
-        <v>4.375</v>
-      </c>
-      <c r="M90">
-        <v>1.875</v>
+        <v>-4.5000000000000071</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="B91">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C91" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D91" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E91" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G91" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H91">
-        <v>0.94346241809993492</v>
-      </c>
-      <c r="I91" t="s">
-        <v>54</v>
-      </c>
-      <c r="J91"/>
+        <v>0.171875</v>
+      </c>
+      <c r="I91"/>
+      <c r="J91">
+        <v>2.5</v>
+      </c>
       <c r="K91">
-        <v>27.187499999999996</v>
+        <v>4.375</v>
       </c>
       <c r="L91">
-        <v>27.5</v>
-      </c>
-      <c r="M91">
-        <v>0.31250000000000355</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="B92">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C92" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D92" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E92" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G92" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H92">
-        <v>0.85746244195924115</v>
-      </c>
-      <c r="I92" t="s">
-        <v>54</v>
-      </c>
-      <c r="J92"/>
+        <v>0.94346241809993492</v>
+      </c>
+      <c r="I92"/>
+      <c r="J92">
+        <v>27.187499999999996</v>
+      </c>
       <c r="K92">
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="L92">
-        <v>19.6875</v>
-      </c>
-      <c r="M92">
-        <v>-0.3125</v>
+        <v>0.31250000000000355</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="B93">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D93" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G93" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H93">
-        <v>0.22215025442220626</v>
-      </c>
-      <c r="I93" t="s">
-        <v>54</v>
-      </c>
-      <c r="J93"/>
+        <v>0.85746244195924115</v>
+      </c>
+      <c r="I93"/>
+      <c r="J93">
+        <v>20</v>
+      </c>
       <c r="K93">
-        <v>47.8125</v>
+        <v>19.6875</v>
       </c>
       <c r="L93">
-        <v>43.75</v>
-      </c>
-      <c r="M93">
-        <v>-4.0625</v>
+        <v>-0.3125</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B94">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C94" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D94" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E94" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G94" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H94">
-        <v>0.87399879071926634</v>
-      </c>
-      <c r="I94" t="s">
-        <v>54</v>
-      </c>
-      <c r="J94"/>
+        <v>0.22215025442220626</v>
+      </c>
+      <c r="I94"/>
+      <c r="J94">
+        <v>47.8125</v>
+      </c>
       <c r="K94">
-        <v>20</v>
+        <v>43.75</v>
       </c>
       <c r="L94">
-        <v>20</v>
-      </c>
-      <c r="M94">
-        <v>0</v>
+        <v>-4.0625</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B95">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C95" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D95" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E95" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G95" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H95">
-        <v>0.11703197825922521</v>
-      </c>
-      <c r="I95" t="s">
-        <v>54</v>
-      </c>
-      <c r="J95"/>
+        <v>0.87399879071926634</v>
+      </c>
+      <c r="I95"/>
+      <c r="J95">
+        <v>20</v>
+      </c>
       <c r="K95">
-        <v>16.25</v>
+        <v>20</v>
       </c>
       <c r="L95">
-        <v>11.875</v>
-      </c>
-      <c r="M95">
-        <v>-4.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B96">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C96" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D96" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E96" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G96" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H96">
-        <v>0.84148058112179402</v>
-      </c>
-      <c r="I96" t="s">
-        <v>54</v>
-      </c>
-      <c r="J96"/>
+        <v>0.11703197825922521</v>
+      </c>
+      <c r="I96"/>
+      <c r="J96">
+        <v>16.25</v>
+      </c>
       <c r="K96">
-        <v>9.375</v>
+        <v>11.875</v>
       </c>
       <c r="L96">
-        <v>9.0625</v>
-      </c>
-      <c r="M96">
-        <v>-0.3125</v>
+        <v>-4.375</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="B97">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C97" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D97" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E97" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G97" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H97">
-        <v>0.45785403257343804</v>
-      </c>
-      <c r="I97" t="s">
-        <v>54</v>
-      </c>
-      <c r="J97"/>
+        <v>0.84148058112179402</v>
+      </c>
+      <c r="I97"/>
+      <c r="J97">
+        <v>9.375</v>
+      </c>
       <c r="K97">
-        <v>16.25</v>
+        <v>9.0625</v>
       </c>
       <c r="L97">
-        <v>17.8125</v>
-      </c>
-      <c r="M97">
-        <v>1.5625</v>
+        <v>-0.3125</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B98">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C98" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D98" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E98" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G98" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H98">
-        <v>0.60135729410911742</v>
-      </c>
-      <c r="I98" t="s">
-        <v>54</v>
-      </c>
-      <c r="J98"/>
+        <v>0.45785403257343804</v>
+      </c>
+      <c r="I98"/>
+      <c r="J98">
+        <v>16.25</v>
+      </c>
       <c r="K98">
-        <v>30.312499999999996</v>
+        <v>17.8125</v>
       </c>
       <c r="L98">
-        <v>31.874999999999996</v>
-      </c>
-      <c r="M98">
         <v>1.5625</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>4</v>
+        <v>386</v>
       </c>
       <c r="B99">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="C99" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D99" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E99" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F99" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G99" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="H99">
-        <v>0.024652878123451905</v>
-      </c>
-      <c r="I99" t="s">
-        <v>54</v>
-      </c>
-      <c r="J99"/>
+        <v>0.60135729410911742</v>
+      </c>
+      <c r="I99"/>
+      <c r="J99">
+        <v>30.312499999999996</v>
+      </c>
       <c r="K99">
-        <v>34.5</v>
+        <v>31.874999999999996</v>
       </c>
       <c r="L99">
-        <v>44.5</v>
-      </c>
-      <c r="M99">
-        <v>10</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>262</v>
+        <v>4</v>
       </c>
       <c r="B100">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D100" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E100" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G100" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="H100">
-        <v>0.0015674824700073883</v>
-      </c>
-      <c r="I100" t="s">
-        <v>54</v>
-      </c>
-      <c r="J100"/>
+        <v>0.024652878123451905</v>
+      </c>
+      <c r="I100"/>
+      <c r="J100">
+        <v>34.5</v>
+      </c>
       <c r="K100">
-        <v>11.25</v>
+        <v>44.5</v>
       </c>
       <c r="L100">
-        <v>17.5</v>
-      </c>
-      <c r="M100">
-        <v>6.25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B101">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C101" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D101" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E101" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G101" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="H101">
-        <v>0.023140931308743756</v>
-      </c>
-      <c r="I101" t="s">
-        <v>54</v>
-      </c>
-      <c r="J101"/>
+        <v>0.0015674824700073883</v>
+      </c>
+      <c r="I101"/>
+      <c r="J101">
+        <v>11.25</v>
+      </c>
       <c r="K101">
-        <v>15.937499999999998</v>
+        <v>17.5</v>
       </c>
       <c r="L101">
-        <v>20.3125</v>
-      </c>
-      <c r="M101">
-        <v>4.3750000000000018</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="B102">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C102" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D102" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E102" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G102" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="H102">
-        <v>0.0065279687446748022</v>
-      </c>
-      <c r="I102" t="s">
-        <v>54</v>
-      </c>
-      <c r="J102"/>
+        <v>0.023140931308743756</v>
+      </c>
+      <c r="I102"/>
+      <c r="J102">
+        <v>15.937499999999998</v>
+      </c>
       <c r="K102">
-        <v>28.499999999999996</v>
+        <v>20.3125</v>
       </c>
       <c r="L102">
-        <v>15.5</v>
-      </c>
-      <c r="M102">
-        <v>-12.999999999999996</v>
+        <v>4.3750000000000018</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>155</v>
+        <v>3</v>
       </c>
       <c r="B103">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C103" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D103" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E103" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G103" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H103">
-        <v>0.0087503998793769418</v>
-      </c>
-      <c r="I103" t="s">
-        <v>54</v>
-      </c>
-      <c r="J103"/>
+        <v>0.0065279687446748022</v>
+      </c>
+      <c r="I103"/>
+      <c r="J103">
+        <v>28.499999999999996</v>
+      </c>
       <c r="K103">
-        <v>15.3125</v>
+        <v>15.5</v>
       </c>
       <c r="L103">
-        <v>7.5</v>
-      </c>
-      <c r="M103">
-        <v>-7.8125</v>
+        <v>-12.999999999999996</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>285</v>
+        <v>155</v>
       </c>
       <c r="B104">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D104" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E104" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G104" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H104">
-        <v>0.00048828125</v>
-      </c>
-      <c r="I104" t="s">
-        <v>54</v>
-      </c>
-      <c r="J104"/>
+        <v>0.0087503998793769418</v>
+      </c>
+      <c r="I104"/>
+      <c r="J104">
+        <v>15.3125</v>
+      </c>
       <c r="K104">
-        <v>4.0625</v>
+        <v>7.5</v>
       </c>
       <c r="L104">
-        <v>0.3125</v>
-      </c>
-      <c r="M104">
-        <v>-3.75</v>
+        <v>-7.8125</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B105">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C105" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D105" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E105" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G105" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H105">
-        <v>0.0031027086527172969</v>
-      </c>
-      <c r="I105" t="s">
-        <v>54</v>
-      </c>
-      <c r="J105"/>
+        <v>0.00048828125</v>
+      </c>
+      <c r="I105"/>
+      <c r="J105">
+        <v>4.0625</v>
+      </c>
       <c r="K105">
-        <v>35.3125</v>
+        <v>0.3125</v>
       </c>
       <c r="L105">
-        <v>23.75</v>
-      </c>
-      <c r="M105">
-        <v>-11.5625</v>
+        <v>-3.75</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>389</v>
+        <v>294</v>
       </c>
       <c r="B106">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C106" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D106" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E106" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G106" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H106">
-        <v>0.037195550452435569</v>
-      </c>
-      <c r="I106" t="s">
-        <v>54</v>
-      </c>
-      <c r="J106"/>
+        <v>0.0031027086527172969</v>
+      </c>
+      <c r="I106"/>
+      <c r="J106">
+        <v>35.3125</v>
+      </c>
       <c r="K106">
-        <v>42.8125</v>
+        <v>23.75</v>
       </c>
       <c r="L106">
-        <v>34.375</v>
-      </c>
-      <c r="M106">
-        <v>-8.4375</v>
+        <v>-11.5625</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>1</v>
+        <v>389</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C107" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D107" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E107" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G107" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="H107">
-        <v>0.75851021271253261</v>
-      </c>
-      <c r="I107" t="s">
-        <v>54</v>
-      </c>
-      <c r="J107"/>
+        <v>0.037195550452435569</v>
+      </c>
+      <c r="I107"/>
+      <c r="J107">
+        <v>42.8125</v>
+      </c>
       <c r="K107">
-        <v>54</v>
+        <v>34.375</v>
       </c>
       <c r="L107">
-        <v>56.000000000000007</v>
-      </c>
-      <c r="M107">
-        <v>2.0000000000000071</v>
+        <v>-8.4375</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D108" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E108" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G108" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H108">
-        <v>0.55633360921599151</v>
-      </c>
-      <c r="I108" t="s">
+        <v>0.75851021271253261</v>
+      </c>
+      <c r="I108"/>
+      <c r="J108">
         <v>54</v>
       </c>
-      <c r="J108"/>
       <c r="K108">
-        <v>38</v>
+        <v>56.000000000000007</v>
       </c>
       <c r="L108">
-        <v>36.5</v>
-      </c>
-      <c r="M108">
-        <v>-1.5</v>
+        <v>2.0000000000000071</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B109">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C109" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D109" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E109" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G109" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H109">
-        <v>0.166444013298571</v>
-      </c>
-      <c r="I109" t="s">
-        <v>54</v>
-      </c>
-      <c r="J109"/>
+        <v>0.55633360921599151</v>
+      </c>
+      <c r="I109"/>
+      <c r="J109">
+        <v>38</v>
+      </c>
       <c r="K109">
-        <v>27</v>
+        <v>36.5</v>
       </c>
       <c r="L109">
-        <v>21</v>
-      </c>
-      <c r="M109">
-        <v>-6</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B110">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C110" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D110" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E110" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G110" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H110">
-        <v>0.65472084601857705</v>
-      </c>
-      <c r="I110" t="s">
-        <v>54</v>
-      </c>
-      <c r="J110"/>
+        <v>0.166444013298571</v>
+      </c>
+      <c r="I110"/>
+      <c r="J110">
+        <v>27</v>
+      </c>
       <c r="K110">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L110">
-        <v>19</v>
-      </c>
-      <c r="M110">
-        <v>-1</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C111" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D111" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E111" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G111" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H111">
-        <v>0.38342557802941779</v>
-      </c>
-      <c r="I111" t="s">
-        <v>54</v>
-      </c>
-      <c r="J111"/>
+        <v>0.65472084601857705</v>
+      </c>
+      <c r="I111"/>
+      <c r="J111">
+        <v>20</v>
+      </c>
       <c r="K111">
-        <v>119.5</v>
+        <v>19</v>
       </c>
       <c r="L111">
-        <v>116.99999999999999</v>
-      </c>
-      <c r="M111">
-        <v>-2.5000000000000142</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D112" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E112" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G112" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H112">
-        <v>0.13888083923540911</v>
-      </c>
-      <c r="I112" t="s">
-        <v>54</v>
-      </c>
-      <c r="J112"/>
+        <v>0.38342557802941779</v>
+      </c>
+      <c r="I112"/>
+      <c r="J112">
+        <v>119.5</v>
+      </c>
       <c r="K112">
-        <v>28.999999999999996</v>
+        <v>116.99999999999999</v>
       </c>
       <c r="L112">
-        <v>24.5</v>
-      </c>
-      <c r="M112">
-        <v>-4.4999999999999964</v>
+        <v>-2.5000000000000142</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C113" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D113" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E113" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G113" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H113">
-        <v>0.65472084601857705</v>
-      </c>
-      <c r="I113" t="s">
-        <v>54</v>
-      </c>
-      <c r="J113"/>
+        <v>0.13888083923540911</v>
+      </c>
+      <c r="I113"/>
+      <c r="J113">
+        <v>28.999999999999996</v>
+      </c>
       <c r="K113">
-        <v>5</v>
+        <v>24.5</v>
       </c>
       <c r="L113">
-        <v>6</v>
-      </c>
-      <c r="M113">
-        <v>1</v>
+        <v>-4.4999999999999964</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B114">
+        <v>4</v>
+      </c>
+      <c r="C114" t="s">
+        <v>48</v>
+      </c>
+      <c r="D114" t="s">
+        <v>4</v>
+      </c>
+      <c r="E114" t="s">
+        <v>50</v>
+      </c>
+      <c r="F114" t="s">
+        <v>7</v>
+      </c>
+      <c r="G114" t="s">
+        <v>18</v>
+      </c>
+      <c r="H114">
+        <v>0.65472084601857705</v>
+      </c>
+      <c r="I114"/>
+      <c r="J114">
         <v>5</v>
       </c>
-      <c r="C114" t="s">
-        <v>44</v>
-      </c>
-      <c r="D114" t="s">
-        <v>5</v>
-      </c>
-      <c r="E114" t="s">
-        <v>46</v>
-      </c>
-      <c r="F114" t="s">
-        <v>8</v>
-      </c>
-      <c r="G114" t="s">
-        <v>51</v>
-      </c>
-      <c r="H114">
-        <v>0.6162903113740984</v>
-      </c>
-      <c r="I114" t="s">
-        <v>54</v>
-      </c>
-      <c r="J114"/>
       <c r="K114">
-        <v>64.5</v>
+        <v>6</v>
       </c>
       <c r="L114">
-        <v>63</v>
-      </c>
-      <c r="M114">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B115">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D115" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E115" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G115" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H115">
-        <v>0.86722569529576821</v>
-      </c>
-      <c r="I115" t="s">
-        <v>54</v>
-      </c>
-      <c r="J115"/>
+        <v>0.6162903113740984</v>
+      </c>
+      <c r="I115"/>
+      <c r="J115">
+        <v>64.5</v>
+      </c>
       <c r="K115">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="L115">
-        <v>9.5</v>
-      </c>
-      <c r="M115">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B116">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D116" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E116" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G116" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H116">
-        <v>0.45103542070345848</v>
-      </c>
-      <c r="I116" t="s">
-        <v>54</v>
-      </c>
-      <c r="J116"/>
+        <v>0.86722569529576821</v>
+      </c>
+      <c r="I116"/>
+      <c r="J116">
+        <v>9</v>
+      </c>
       <c r="K116">
-        <v>26</v>
+        <v>9.5</v>
       </c>
       <c r="L116">
-        <v>23</v>
-      </c>
-      <c r="M116">
-        <v>-3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B117">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D117" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E117" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F117" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G117" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H117">
-        <v>0.43883151648300983</v>
-      </c>
-      <c r="I117" t="s">
-        <v>54</v>
-      </c>
-      <c r="J117"/>
+        <v>0.45103542070345848</v>
+      </c>
+      <c r="I117"/>
+      <c r="J117">
+        <v>26</v>
+      </c>
       <c r="K117">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="L117">
-        <v>17</v>
-      </c>
-      <c r="M117">
-        <v>-2.5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B118">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C118" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D118" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E118" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G118" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H118">
-        <v>0.13971745089441601</v>
-      </c>
-      <c r="I118" t="s">
-        <v>54</v>
-      </c>
-      <c r="J118"/>
+        <v>0.43883151648300983</v>
+      </c>
+      <c r="I118"/>
+      <c r="J118">
+        <v>19.5</v>
+      </c>
       <c r="K118">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L118">
-        <v>24</v>
-      </c>
-      <c r="M118">
-        <v>5</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B119">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D119" t="s">
+        <v>4</v>
+      </c>
+      <c r="E119" t="s">
+        <v>50</v>
+      </c>
+      <c r="F119" t="s">
+        <v>7</v>
+      </c>
+      <c r="G119" t="s">
+        <v>18</v>
+      </c>
+      <c r="H119">
+        <v>0.13971745089441601</v>
+      </c>
+      <c r="I119"/>
+      <c r="J119">
+        <v>19</v>
+      </c>
+      <c r="K119">
+        <v>24</v>
+      </c>
+      <c r="L119">
         <v>5</v>
-      </c>
-      <c r="E119" t="s">
-        <v>46</v>
-      </c>
-      <c r="F119" t="s">
-        <v>8</v>
-      </c>
-      <c r="G119" t="s">
-        <v>51</v>
-      </c>
-      <c r="H119">
-        <v>0.98976278524009931</v>
-      </c>
-      <c r="I119" t="s">
-        <v>54</v>
-      </c>
-      <c r="J119"/>
-      <c r="K119">
-        <v>25.5</v>
-      </c>
-      <c r="L119">
-        <v>26</v>
-      </c>
-      <c r="M119">
-        <v>0.5</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="B120">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C120" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D120" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E120" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G120" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H120">
-        <v>0.078505930447085509</v>
-      </c>
-      <c r="I120" t="s">
-        <v>54</v>
-      </c>
-      <c r="J120"/>
+        <v>0.98976278524009931</v>
+      </c>
+      <c r="I120"/>
+      <c r="J120">
+        <v>25.5</v>
+      </c>
       <c r="K120">
-        <v>19.6875</v>
+        <v>26</v>
       </c>
       <c r="L120">
-        <v>14.374999999999998</v>
-      </c>
-      <c r="M120">
-        <v>-5.3125000000000018</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>267</v>
+        <v>162</v>
       </c>
       <c r="B121">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C121" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D121" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E121" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G121" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H121">
-        <v>1</v>
-      </c>
-      <c r="I121" t="s">
-        <v>54</v>
-      </c>
-      <c r="J121"/>
+        <v>0.078505930447085509</v>
+      </c>
+      <c r="I121"/>
+      <c r="J121">
+        <v>19.6875</v>
+      </c>
       <c r="K121">
-        <v>15.937499999999998</v>
+        <v>14.374999999999998</v>
       </c>
       <c r="L121">
-        <v>15.937499999999998</v>
-      </c>
-      <c r="M121">
-        <v>0</v>
+        <v>-5.3125000000000018</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B122">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C122" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D122" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E122" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G122" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H122">
-        <v>0.53709397844264162</v>
-      </c>
-      <c r="I122" t="s">
-        <v>54</v>
-      </c>
-      <c r="J122"/>
+        <v>1</v>
+      </c>
+      <c r="I122"/>
+      <c r="J122">
+        <v>15.937499999999998</v>
+      </c>
       <c r="K122">
-        <v>9.0625</v>
+        <v>15.937499999999998</v>
       </c>
       <c r="L122">
-        <v>10.3125</v>
-      </c>
-      <c r="M122">
-        <v>1.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B123">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C123" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D123" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E123" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G123" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H123">
-        <v>0.47162331957245862</v>
-      </c>
-      <c r="I123" t="s">
-        <v>54</v>
-      </c>
-      <c r="J123"/>
+        <v>0.53709397844264162</v>
+      </c>
+      <c r="I123"/>
+      <c r="J123">
+        <v>9.0625</v>
+      </c>
       <c r="K123">
-        <v>20.3125</v>
+        <v>10.3125</v>
       </c>
       <c r="L123">
-        <v>18.75</v>
-      </c>
-      <c r="M123">
-        <v>-1.5625</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B124">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C124" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D124" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E124" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G124" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H124">
-        <v>0.077398425119459033</v>
-      </c>
-      <c r="I124" t="s">
-        <v>54</v>
-      </c>
-      <c r="J124"/>
+        <v>0.47162331957245862</v>
+      </c>
+      <c r="I124"/>
+      <c r="J124">
+        <v>20.3125</v>
+      </c>
       <c r="K124">
-        <v>32.8125</v>
+        <v>18.75</v>
       </c>
       <c r="L124">
-        <v>38.125</v>
-      </c>
-      <c r="M124">
-        <v>5.3125</v>
+        <v>-1.5625</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>331</v>
+        <v>287</v>
       </c>
       <c r="B125">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C125" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D125" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E125" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G125" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H125">
-        <v>0.98763520633597179</v>
-      </c>
-      <c r="I125" t="s">
-        <v>54</v>
-      </c>
-      <c r="J125"/>
+        <v>0.077398425119459033</v>
+      </c>
+      <c r="I125"/>
+      <c r="J125">
+        <v>32.8125</v>
+      </c>
       <c r="K125">
-        <v>9.375</v>
+        <v>38.125</v>
       </c>
       <c r="L125">
-        <v>9.0625</v>
-      </c>
-      <c r="M125">
-        <v>-0.3125</v>
+        <v>5.3125</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="B126">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C126" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D126" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E126" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F126" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G126" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H126">
-        <v>0.12294563468568556</v>
-      </c>
-      <c r="I126" t="s">
-        <v>54</v>
-      </c>
-      <c r="J126"/>
+        <v>0.98763520633597179</v>
+      </c>
+      <c r="I126"/>
+      <c r="J126">
+        <v>9.375</v>
+      </c>
       <c r="K126">
-        <v>22.1875</v>
+        <v>9.0625</v>
       </c>
       <c r="L126">
-        <v>17.5</v>
-      </c>
-      <c r="M126">
-        <v>-4.6875</v>
+        <v>-0.3125</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B127">
+        <v>44</v>
+      </c>
+      <c r="C127" t="s">
         <v>46</v>
       </c>
-      <c r="C127" t="s">
-        <v>42</v>
-      </c>
       <c r="D127" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E127" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G127" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H127">
-        <v>0.27429882739587574</v>
-      </c>
-      <c r="I127" t="s">
-        <v>54</v>
-      </c>
-      <c r="J127"/>
+        <v>0.12294563468568556</v>
+      </c>
+      <c r="I127"/>
+      <c r="J127">
+        <v>22.1875</v>
+      </c>
       <c r="K127">
-        <v>8.4375</v>
+        <v>17.5</v>
       </c>
       <c r="L127">
-        <v>6.25</v>
-      </c>
-      <c r="M127">
-        <v>-2.1875</v>
+        <v>-4.6875</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B128">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C128" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D128" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E128" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G128" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H128">
-        <v>0.49129712421589311</v>
-      </c>
-      <c r="I128" t="s">
-        <v>54</v>
-      </c>
-      <c r="J128"/>
+        <v>0.27429882739587574</v>
+      </c>
+      <c r="I128"/>
+      <c r="J128">
+        <v>8.4375</v>
+      </c>
       <c r="K128">
-        <v>4.375</v>
+        <v>6.25</v>
       </c>
       <c r="L128">
-        <v>3.4375</v>
-      </c>
-      <c r="M128">
-        <v>-0.9375</v>
+        <v>-2.1875</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="B129">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C129" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D129" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E129" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G129" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H129">
-        <v>0.15701028548930446</v>
-      </c>
-      <c r="I129" t="s">
-        <v>54</v>
-      </c>
-      <c r="J129"/>
+        <v>0.49129712421589311</v>
+      </c>
+      <c r="I129"/>
+      <c r="J129">
+        <v>4.375</v>
+      </c>
       <c r="K129">
-        <v>55.625</v>
+        <v>3.4375</v>
       </c>
       <c r="L129">
-        <v>47.8125</v>
-      </c>
-      <c r="M129">
-        <v>-7.8125</v>
+        <v>-0.9375</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
+        <v>382</v>
+      </c>
+      <c r="B130">
+        <v>63</v>
+      </c>
+      <c r="C130" t="s">
+        <v>46</v>
+      </c>
+      <c r="D130" t="s">
+        <v>4</v>
+      </c>
+      <c r="E130" t="s">
+        <v>50</v>
+      </c>
+      <c r="F130" t="s">
+        <v>7</v>
+      </c>
+      <c r="G130" t="s">
+        <v>18</v>
+      </c>
+      <c r="H130">
+        <v>0.15701028548930446</v>
+      </c>
+      <c r="I130"/>
+      <c r="J130">
+        <v>55.625</v>
+      </c>
+      <c r="K130">
+        <v>47.8125</v>
+      </c>
+      <c r="L130">
+        <v>-7.8125</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
         <v>386</v>
       </c>
-      <c r="B130">
+      <c r="B131">
         <v>67</v>
       </c>
-      <c r="C130" t="s">
-        <v>42</v>
-      </c>
-      <c r="D130" t="s">
-        <v>5</v>
-      </c>
-      <c r="E130" t="s">
+      <c r="C131" t="s">
         <v>46</v>
       </c>
-      <c r="F130" t="s">
-        <v>8</v>
-      </c>
-      <c r="G130" t="s">
-        <v>51</v>
-      </c>
-      <c r="H130">
+      <c r="D131" t="s">
+        <v>4</v>
+      </c>
+      <c r="E131" t="s">
+        <v>50</v>
+      </c>
+      <c r="F131" t="s">
+        <v>7</v>
+      </c>
+      <c r="G131" t="s">
+        <v>18</v>
+      </c>
+      <c r="H131">
         <v>0.13717043444167704</v>
       </c>
-      <c r="I130" t="s">
-        <v>54</v>
-      </c>
-      <c r="J130"/>
-      <c r="K130">
+      <c r="I131"/>
+      <c r="J131">
         <v>16.25</v>
       </c>
-      <c r="L130">
+      <c r="K131">
         <v>12.5</v>
       </c>
-      <c r="M130">
+      <c r="L131">
         <v>-3.75</v>
       </c>
     </row>
@@ -5817,7 +5920,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -5826,7 +5929,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -5842,7 +5945,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
@@ -5858,7 +5961,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
@@ -5868,21 +5971,21 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -5899,7 +6002,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -5923,7 +6026,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11">
         <v>4.2847295168067223</v>
@@ -5934,7 +6037,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -5945,13 +6048,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13">
         <v>0.11737694645167374</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -5972,7 +6075,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
@@ -5988,7 +6091,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
@@ -5998,21 +6101,21 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -6029,7 +6132,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -6053,7 +6156,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>3.4792526312850729</v>
@@ -6064,7 +6167,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -6075,13 +6178,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0.17558600210148412</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
